--- a/team_specific_matrix/Hofstra_B.xlsx
+++ b/team_specific_matrix/Hofstra_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.17</v>
+        <v>0.1651785714285714</v>
       </c>
       <c r="C2">
-        <v>0.61</v>
+        <v>0.6205357142857143</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02</v>
+        <v>0.01785714285714286</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.14</v>
+        <v>0.1383928571428572</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06</v>
+        <v>0.05803571428571429</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01574803149606299</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="C3">
-        <v>0.04724409448818898</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03937007874015748</v>
+        <v>0.03472222222222222</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7244094488188977</v>
+        <v>0.7569444444444444</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1732283464566929</v>
+        <v>0.1527777777777778</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1333333333333333</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2666666666666667</v>
+        <v>0.2162162162162162</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06293706293706294</v>
+        <v>0.05586592178770949</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05594405594405594</v>
+        <v>0.05586592178770949</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2447552447552448</v>
+        <v>0.2290502793296089</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.006993006993006993</v>
+        <v>0.0111731843575419</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1048951048951049</v>
+        <v>0.1005586592178771</v>
       </c>
       <c r="R6">
-        <v>0.08391608391608392</v>
+        <v>0.0782122905027933</v>
       </c>
       <c r="S6">
-        <v>0.4405594405594406</v>
+        <v>0.4692737430167598</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1428571428571428</v>
+        <v>0.1359223300970874</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02197802197802198</v>
+        <v>0.02912621359223301</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.01098901098901099</v>
+        <v>0.009708737864077669</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1758241758241758</v>
+        <v>0.1650485436893204</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.04395604395604396</v>
+        <v>0.04854368932038835</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.0989010989010989</v>
+        <v>0.1067961165048544</v>
       </c>
       <c r="R7">
-        <v>0.05494505494505494</v>
+        <v>0.04854368932038835</v>
       </c>
       <c r="S7">
-        <v>0.4505494505494506</v>
+        <v>0.4563106796116505</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06927710843373494</v>
+        <v>0.06188118811881188</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01506024096385542</v>
+        <v>0.01237623762376238</v>
       </c>
       <c r="E8">
-        <v>0.003012048192771084</v>
+        <v>0.002475247524752475</v>
       </c>
       <c r="F8">
-        <v>0.0572289156626506</v>
+        <v>0.06683168316831684</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1686746987951807</v>
+        <v>0.146039603960396</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03012048192771084</v>
+        <v>0.03465346534653466</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1506024096385542</v>
+        <v>0.1584158415841584</v>
       </c>
       <c r="R8">
-        <v>0.1174698795180723</v>
+        <v>0.1138613861386139</v>
       </c>
       <c r="S8">
-        <v>0.3885542168674699</v>
+        <v>0.4034653465346535</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0958904109589041</v>
+        <v>0.09375</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0045662100456621</v>
+        <v>0.00390625</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.045662100456621</v>
+        <v>0.05859375</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1552511415525114</v>
+        <v>0.15234375</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0410958904109589</v>
+        <v>0.0390625</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1872146118721461</v>
+        <v>0.17578125</v>
       </c>
       <c r="R9">
-        <v>0.1050228310502283</v>
+        <v>0.09765625</v>
       </c>
       <c r="S9">
-        <v>0.365296803652968</v>
+        <v>0.37890625</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09615384615384616</v>
+        <v>0.09356223175965665</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02327935222672065</v>
+        <v>0.02489270386266094</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.001716738197424893</v>
       </c>
       <c r="F10">
-        <v>0.06275303643724696</v>
+        <v>0.06266094420600858</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1062753036437247</v>
+        <v>0.1047210300429185</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0242914979757085</v>
+        <v>0.02317596566523605</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1983805668016194</v>
+        <v>0.192274678111588</v>
       </c>
       <c r="R10">
-        <v>0.1032388663967611</v>
+        <v>0.1012875536480687</v>
       </c>
       <c r="S10">
-        <v>0.3856275303643725</v>
+        <v>0.3957081545064378</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1052631578947368</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1353383458646616</v>
+        <v>0.1292517006802721</v>
       </c>
       <c r="K11">
-        <v>0.1203007518796992</v>
+        <v>0.1224489795918367</v>
       </c>
       <c r="L11">
-        <v>0.6390977443609023</v>
+        <v>0.6530612244897959</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7032967032967034</v>
+        <v>0.7156862745098039</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2197802197802198</v>
+        <v>0.2156862745098039</v>
       </c>
       <c r="K12">
-        <v>0.02197802197802198</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="L12">
-        <v>0.05494505494505494</v>
+        <v>0.04901960784313725</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5714285714285714</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3928571428571428</v>
+        <v>0.4411764705882353</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.03571428571428571</v>
+        <v>0.02941176470588235</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.005128205128205128</v>
+        <v>0.004347826086956522</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.158974358974359</v>
+        <v>0.1608695652173913</v>
       </c>
       <c r="I15">
-        <v>0.08205128205128205</v>
+        <v>0.08695652173913043</v>
       </c>
       <c r="J15">
-        <v>0.3641025641025641</v>
+        <v>0.3608695652173913</v>
       </c>
       <c r="K15">
-        <v>0.04102564102564103</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01025641025641026</v>
+        <v>0.01304347826086956</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03589743589743589</v>
+        <v>0.03478260869565217</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3025641025641025</v>
+        <v>0.3043478260869565</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.007462686567164179</v>
+        <v>0.0124223602484472</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1567164179104478</v>
+        <v>0.1677018633540373</v>
       </c>
       <c r="I16">
-        <v>0.1492537313432836</v>
+        <v>0.1490683229813665</v>
       </c>
       <c r="J16">
-        <v>0.3955223880597015</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="K16">
-        <v>0.09701492537313433</v>
+        <v>0.09316770186335403</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05223880597014925</v>
+        <v>0.04968944099378882</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1417910447761194</v>
+        <v>0.1366459627329193</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01623376623376623</v>
+        <v>0.02228412256267409</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1623376623376623</v>
+        <v>0.1615598885793872</v>
       </c>
       <c r="I17">
-        <v>0.1363636363636364</v>
+        <v>0.1253481894150418</v>
       </c>
       <c r="J17">
-        <v>0.4383116883116883</v>
+        <v>0.4484679665738162</v>
       </c>
       <c r="K17">
-        <v>0.06818181818181818</v>
+        <v>0.06406685236768803</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01948051948051948</v>
+        <v>0.01671309192200557</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07792207792207792</v>
+        <v>0.07242339832869081</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08116883116883117</v>
+        <v>0.08913649025069638</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02793296089385475</v>
+        <v>0.02912621359223301</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1787709497206704</v>
+        <v>0.1650485436893204</v>
       </c>
       <c r="I18">
-        <v>0.1284916201117318</v>
+        <v>0.1262135922330097</v>
       </c>
       <c r="J18">
-        <v>0.4245810055865922</v>
+        <v>0.4320388349514563</v>
       </c>
       <c r="K18">
-        <v>0.0446927374301676</v>
+        <v>0.04854368932038835</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.00558659217877095</v>
+        <v>0.004854368932038835</v>
       </c>
       <c r="N18">
-        <v>0.00558659217877095</v>
+        <v>0.004854368932038835</v>
       </c>
       <c r="O18">
-        <v>0.06145251396648044</v>
+        <v>0.07281553398058252</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1229050279329609</v>
+        <v>0.116504854368932</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0128068303094984</v>
+        <v>0.01233480176211454</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2166488794023479</v>
+        <v>0.2237885462555066</v>
       </c>
       <c r="I19">
-        <v>0.1302027748132337</v>
+        <v>0.1268722466960353</v>
       </c>
       <c r="J19">
-        <v>0.384204909284952</v>
+        <v>0.386784140969163</v>
       </c>
       <c r="K19">
-        <v>0.06616862326574173</v>
+        <v>0.05991189427312775</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02027748132337246</v>
+        <v>0.02114537444933921</v>
       </c>
       <c r="N19">
-        <v>0.001067235859124867</v>
+        <v>0.000881057268722467</v>
       </c>
       <c r="O19">
-        <v>0.08004268943436499</v>
+        <v>0.07841409691629955</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.08858057630736393</v>
+        <v>0.08986784140969163</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Hofstra_B.xlsx
+++ b/team_specific_matrix/Hofstra_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1651785714285714</v>
+        <v>0.1604938271604938</v>
       </c>
       <c r="C2">
-        <v>0.6205357142857143</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01785714285714286</v>
+        <v>0.01646090534979424</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1383928571428572</v>
+        <v>0.1275720164609054</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.05803571428571429</v>
+        <v>0.06584362139917696</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01388888888888889</v>
+        <v>0.01257861635220126</v>
       </c>
       <c r="C3">
-        <v>0.04166666666666666</v>
+        <v>0.0440251572327044</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03472222222222222</v>
+        <v>0.03144654088050314</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7569444444444444</v>
+        <v>0.7672955974842768</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1527777777777778</v>
+        <v>0.1446540880503145</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1081081081081081</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6756756756756757</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2162162162162162</v>
+        <v>0.2105263157894737</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.05586592178770949</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05586592178770949</v>
+        <v>0.05365853658536585</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2290502793296089</v>
+        <v>0.2292682926829268</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.0111731843575419</v>
+        <v>0.00975609756097561</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1005586592178771</v>
+        <v>0.1121951219512195</v>
       </c>
       <c r="R6">
-        <v>0.0782122905027933</v>
+        <v>0.08780487804878048</v>
       </c>
       <c r="S6">
-        <v>0.4692737430167598</v>
+        <v>0.4585365853658537</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1359223300970874</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02912621359223301</v>
+        <v>0.02542372881355932</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.009708737864077669</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1650485436893204</v>
+        <v>0.1694915254237288</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.04854368932038835</v>
+        <v>0.0423728813559322</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1067961165048544</v>
+        <v>0.1101694915254237</v>
       </c>
       <c r="R7">
-        <v>0.04854368932038835</v>
+        <v>0.05932203389830509</v>
       </c>
       <c r="S7">
-        <v>0.4563106796116505</v>
+        <v>0.4576271186440678</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.06188118811881188</v>
+        <v>0.05908096280087528</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01237623762376238</v>
+        <v>0.01094091903719912</v>
       </c>
       <c r="E8">
-        <v>0.002475247524752475</v>
+        <v>0.002188183807439825</v>
       </c>
       <c r="F8">
-        <v>0.06683168316831684</v>
+        <v>0.07439824945295405</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.146039603960396</v>
+        <v>0.1487964989059081</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03465346534653466</v>
+        <v>0.0350109409190372</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1584158415841584</v>
+        <v>0.1509846827133479</v>
       </c>
       <c r="R8">
-        <v>0.1138613861386139</v>
+        <v>0.1115973741794311</v>
       </c>
       <c r="S8">
-        <v>0.4034653465346535</v>
+        <v>0.4070021881838075</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.09375</v>
+        <v>0.1017543859649123</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.00390625</v>
+        <v>0.003508771929824561</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>0.003508771929824561</v>
       </c>
       <c r="F9">
-        <v>0.05859375</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.15234375</v>
+        <v>0.1403508771929824</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0390625</v>
+        <v>0.04210526315789474</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.17578125</v>
+        <v>0.1684210526315789</v>
       </c>
       <c r="R9">
-        <v>0.09765625</v>
+        <v>0.09473684210526316</v>
       </c>
       <c r="S9">
-        <v>0.37890625</v>
+        <v>0.3789473684210526</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09356223175965665</v>
+        <v>0.0933852140077821</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02489270386266094</v>
+        <v>0.02334630350194553</v>
       </c>
       <c r="E10">
-        <v>0.001716738197424893</v>
+        <v>0.001556420233463035</v>
       </c>
       <c r="F10">
-        <v>0.06266094420600858</v>
+        <v>0.0622568093385214</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1047210300429185</v>
+        <v>0.1066147859922179</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02317596566523605</v>
+        <v>0.02334630350194553</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.192274678111588</v>
+        <v>0.1961089494163424</v>
       </c>
       <c r="R10">
-        <v>0.1012875536480687</v>
+        <v>0.1035019455252918</v>
       </c>
       <c r="S10">
-        <v>0.3957081545064378</v>
+        <v>0.3898832684824903</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.09523809523809523</v>
+        <v>0.08928571428571429</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1292517006802721</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="K11">
-        <v>0.1224489795918367</v>
+        <v>0.119047619047619</v>
       </c>
       <c r="L11">
-        <v>0.6530612244897959</v>
+        <v>0.6726190476190477</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7156862745098039</v>
+        <v>0.7203389830508474</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2156862745098039</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="K12">
-        <v>0.0196078431372549</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="L12">
-        <v>0.04901960784313725</v>
+        <v>0.0423728813559322</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.5294117647058824</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.4411764705882353</v>
+        <v>0.4324324324324325</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.02941176470588235</v>
+        <v>0.02702702702702703</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.004347826086956522</v>
+        <v>0.003968253968253968</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1608695652173913</v>
+        <v>0.1626984126984127</v>
       </c>
       <c r="I15">
-        <v>0.08695652173913043</v>
+        <v>0.0873015873015873</v>
       </c>
       <c r="J15">
-        <v>0.3608695652173913</v>
+        <v>0.3452380952380952</v>
       </c>
       <c r="K15">
-        <v>0.03478260869565217</v>
+        <v>0.04365079365079365</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01304347826086956</v>
+        <v>0.01587301587301587</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03478260869565217</v>
+        <v>0.03968253968253968</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.3043478260869565</v>
+        <v>0.3015873015873016</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,22 +1336,22 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0124223602484472</v>
+        <v>0.01149425287356322</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1677018633540373</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="I16">
-        <v>0.1490683229813665</v>
+        <v>0.1436781609195402</v>
       </c>
       <c r="J16">
-        <v>0.391304347826087</v>
+        <v>0.4080459770114943</v>
       </c>
       <c r="K16">
-        <v>0.09316770186335403</v>
+        <v>0.08620689655172414</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04968944099378882</v>
+        <v>0.05172413793103448</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1366459627329193</v>
+        <v>0.132183908045977</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02228412256267409</v>
+        <v>0.01990049751243781</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1615598885793872</v>
+        <v>0.1691542288557214</v>
       </c>
       <c r="I17">
-        <v>0.1253481894150418</v>
+        <v>0.1194029850746269</v>
       </c>
       <c r="J17">
-        <v>0.4484679665738162</v>
+        <v>0.4502487562189055</v>
       </c>
       <c r="K17">
-        <v>0.06406685236768803</v>
+        <v>0.06716417910447761</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01671309192200557</v>
+        <v>0.01492537313432836</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07242339832869081</v>
+        <v>0.06467661691542288</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.08913649025069638</v>
+        <v>0.0945273631840796</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02912621359223301</v>
+        <v>0.02991452991452992</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1650485436893204</v>
+        <v>0.1623931623931624</v>
       </c>
       <c r="I18">
-        <v>0.1262135922330097</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="J18">
-        <v>0.4320388349514563</v>
+        <v>0.4230769230769231</v>
       </c>
       <c r="K18">
-        <v>0.04854368932038835</v>
+        <v>0.05982905982905983</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.004854368932038835</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="N18">
-        <v>0.004854368932038835</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="O18">
-        <v>0.07281553398058252</v>
+        <v>0.07264957264957266</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.116504854368932</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01233480176211454</v>
+        <v>0.0126883425852498</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2237885462555066</v>
+        <v>0.2268041237113402</v>
       </c>
       <c r="I19">
-        <v>0.1268722466960353</v>
+        <v>0.1292624900872324</v>
       </c>
       <c r="J19">
-        <v>0.386784140969163</v>
+        <v>0.3798572561459159</v>
       </c>
       <c r="K19">
-        <v>0.05991189427312775</v>
+        <v>0.06026962727993656</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02114537444933921</v>
+        <v>0.01982553528945281</v>
       </c>
       <c r="N19">
-        <v>0.000881057268722467</v>
+        <v>0.0007930214115781126</v>
       </c>
       <c r="O19">
-        <v>0.07841409691629955</v>
+        <v>0.0761300555114988</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.08986784140969163</v>
+        <v>0.0943695479777954</v>
       </c>
     </row>
   </sheetData>
